--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Fgfr4</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09755033333333334</v>
+        <v>0.229066</v>
       </c>
       <c r="H2">
-        <v>0.292651</v>
+        <v>0.687198</v>
       </c>
       <c r="I2">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="J2">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8372556666666666</v>
+        <v>0.903185</v>
       </c>
       <c r="N2">
-        <v>2.511767</v>
+        <v>2.709555</v>
       </c>
       <c r="O2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q2">
-        <v>0.08167456936855555</v>
+        <v>0.20688897521</v>
       </c>
       <c r="R2">
-        <v>0.7350711243169999</v>
+        <v>1.86200077689</v>
       </c>
       <c r="S2">
-        <v>0.00518059916247236</v>
+        <v>0.005170595736912509</v>
       </c>
       <c r="T2">
-        <v>0.005180599162472359</v>
+        <v>0.005170595736912508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09755033333333334</v>
+        <v>0.229066</v>
       </c>
       <c r="H3">
-        <v>0.292651</v>
+        <v>0.687198</v>
       </c>
       <c r="I3">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="J3">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +626,22 @@
         <v>0.331116</v>
       </c>
       <c r="O3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q3">
-        <v>0.01076682539066666</v>
+        <v>0.02528247255199999</v>
       </c>
       <c r="R3">
-        <v>0.09690142851599999</v>
+        <v>0.227542252968</v>
       </c>
       <c r="S3">
-        <v>0.000682937259817968</v>
+        <v>0.0006318627885477586</v>
       </c>
       <c r="T3">
-        <v>0.0006829372598179679</v>
+        <v>0.0006318627885477585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09755033333333334</v>
+        <v>0.229066</v>
       </c>
       <c r="H4">
-        <v>0.292651</v>
+        <v>0.687198</v>
       </c>
       <c r="I4">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="J4">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>18.40564566666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N4">
-        <v>55.216937</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O4">
-        <v>0.9503421275147966</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P4">
-        <v>0.9503421275147965</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q4">
-        <v>1.795476869998556</v>
+        <v>0.007046604647333332</v>
       </c>
       <c r="R4">
-        <v>16.159291829987</v>
+        <v>0.063419441826</v>
       </c>
       <c r="S4">
-        <v>0.1138866851807867</v>
+        <v>0.0001761096448577145</v>
       </c>
       <c r="T4">
-        <v>0.1138866851807867</v>
+        <v>0.0001761096448577145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09755033333333334</v>
+        <v>0.229066</v>
       </c>
       <c r="H5">
-        <v>0.292651</v>
+        <v>0.687198</v>
       </c>
       <c r="I5">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="J5">
-        <v>0.1198375636346959</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01411566666666667</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N5">
-        <v>0.042347</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q5">
-        <v>0.001376987988555556</v>
+        <v>6.305975399371333</v>
       </c>
       <c r="R5">
-        <v>0.012392891897</v>
+        <v>56.753778594342</v>
       </c>
       <c r="S5">
-        <v>8.734203161886317E-05</v>
+        <v>0.1575997439398046</v>
       </c>
       <c r="T5">
-        <v>8.734203161886316E-05</v>
+        <v>0.1575997439398046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.716471</v>
+        <v>0.229066</v>
       </c>
       <c r="H6">
-        <v>2.149413</v>
+        <v>0.687198</v>
       </c>
       <c r="I6">
-        <v>0.8801624363653041</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="J6">
-        <v>0.880162436365304</v>
+        <v>0.1638925451331857</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8372556666666666</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N6">
-        <v>2.511767</v>
+        <v>0.164668</v>
       </c>
       <c r="O6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q6">
-        <v>0.5998694047523333</v>
+        <v>0.01257328002933333</v>
       </c>
       <c r="R6">
-        <v>5.398824642770999</v>
+        <v>0.113159520264</v>
       </c>
       <c r="S6">
-        <v>0.03804957846584226</v>
+        <v>0.0003142330230631632</v>
       </c>
       <c r="T6">
-        <v>0.03804957846584225</v>
+        <v>0.0003142330230631632</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.09755033333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.292651</v>
+      </c>
+      <c r="I7">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="J7">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.716471</v>
-      </c>
-      <c r="H7">
-        <v>2.149413</v>
-      </c>
-      <c r="I7">
-        <v>0.8801624363653041</v>
-      </c>
-      <c r="J7">
-        <v>0.880162436365304</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.110372</v>
+        <v>0.903185</v>
       </c>
       <c r="N7">
-        <v>0.331116</v>
+        <v>2.709555</v>
       </c>
       <c r="O7">
-        <v>0.00569885801333365</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P7">
-        <v>0.00569885801333365</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q7">
-        <v>0.07907833721199999</v>
+        <v>0.08810599781166667</v>
       </c>
       <c r="R7">
-        <v>0.711705034908</v>
+        <v>0.792953980305</v>
       </c>
       <c r="S7">
-        <v>0.005015920753515682</v>
+        <v>0.002201956369202447</v>
       </c>
       <c r="T7">
-        <v>0.005015920753515682</v>
+        <v>0.002201956369202446</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.716471</v>
+        <v>0.09755033333333334</v>
       </c>
       <c r="H8">
-        <v>2.149413</v>
+        <v>0.292651</v>
       </c>
       <c r="I8">
-        <v>0.8801624363653041</v>
+        <v>0.06979548430841175</v>
       </c>
       <c r="J8">
-        <v>0.880162436365304</v>
+        <v>0.06979548430841175</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>18.40564566666667</v>
+        <v>0.110372</v>
       </c>
       <c r="N8">
-        <v>55.216937</v>
+        <v>0.331116</v>
       </c>
       <c r="O8">
-        <v>0.9503421275147966</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P8">
-        <v>0.9503421275147965</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q8">
-        <v>13.18711135644233</v>
+        <v>0.01076682539066666</v>
       </c>
       <c r="R8">
-        <v>118.684002207981</v>
+        <v>0.09690142851599999</v>
       </c>
       <c r="S8">
-        <v>0.8364554423340099</v>
+        <v>0.0002690858776237563</v>
       </c>
       <c r="T8">
-        <v>0.8364554423340097</v>
+        <v>0.0002690858776237563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.716471</v>
+        <v>0.09755033333333334</v>
       </c>
       <c r="H9">
-        <v>2.149413</v>
+        <v>0.292651</v>
       </c>
       <c r="I9">
-        <v>0.8801624363653041</v>
+        <v>0.06979548430841175</v>
       </c>
       <c r="J9">
-        <v>0.880162436365304</v>
+        <v>0.06979548430841175</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +992,462 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01411566666666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N9">
-        <v>0.042347</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O9">
-        <v>0.0007288368435552499</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P9">
-        <v>0.0007288368435552499</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q9">
-        <v>0.01011346581233333</v>
+        <v>0.003000875870777778</v>
       </c>
       <c r="R9">
-        <v>0.091021192311</v>
+        <v>0.027007882837</v>
       </c>
       <c r="S9">
-        <v>0.0006414948119363868</v>
+        <v>7.499827368131894E-05</v>
       </c>
       <c r="T9">
-        <v>0.0006414948119363867</v>
+        <v>7.499827368131894E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.09755033333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.292651</v>
+      </c>
+      <c r="I10">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="J10">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>27.52907633333334</v>
+      </c>
+      <c r="N10">
+        <v>82.58722900000001</v>
+      </c>
+      <c r="O10">
+        <v>0.9616041035407232</v>
+      </c>
+      <c r="P10">
+        <v>0.9616041035407231</v>
+      </c>
+      <c r="Q10">
+        <v>2.685470572675445</v>
+      </c>
+      <c r="R10">
+        <v>24.169235154079</v>
+      </c>
+      <c r="S10">
+        <v>0.06711562411958089</v>
+      </c>
+      <c r="T10">
+        <v>0.06711562411958089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.09755033333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.292651</v>
+      </c>
+      <c r="I11">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="J11">
+        <v>0.06979548430841175</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.05488933333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.164668</v>
+      </c>
+      <c r="O11">
+        <v>0.001917311265181737</v>
+      </c>
+      <c r="P11">
+        <v>0.001917311265181736</v>
+      </c>
+      <c r="Q11">
+        <v>0.005354472763111112</v>
+      </c>
+      <c r="R11">
+        <v>0.048190254868</v>
+      </c>
+      <c r="S11">
+        <v>0.000133819668323333</v>
+      </c>
+      <c r="T11">
+        <v>0.000133819668323333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.071043333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.21313</v>
+      </c>
+      <c r="I12">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="J12">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.903185</v>
+      </c>
+      <c r="N12">
+        <v>2.709555</v>
+      </c>
+      <c r="O12">
+        <v>0.03154869388788047</v>
+      </c>
+      <c r="P12">
+        <v>0.03154869388788046</v>
+      </c>
+      <c r="Q12">
+        <v>0.9673502730166667</v>
+      </c>
+      <c r="R12">
+        <v>8.706152457149999</v>
+      </c>
+      <c r="S12">
+        <v>0.02417614178176551</v>
+      </c>
+      <c r="T12">
+        <v>0.0241761417817655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.071043333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.21313</v>
+      </c>
+      <c r="I13">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="J13">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.110372</v>
+      </c>
+      <c r="N13">
+        <v>0.331116</v>
+      </c>
+      <c r="O13">
+        <v>0.003855347953955327</v>
+      </c>
+      <c r="P13">
+        <v>0.003855347953955326</v>
+      </c>
+      <c r="Q13">
+        <v>0.1182131947866667</v>
+      </c>
+      <c r="R13">
+        <v>1.06391875308</v>
+      </c>
+      <c r="S13">
+        <v>0.002954399287783812</v>
+      </c>
+      <c r="T13">
+        <v>0.002954399287783811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.071043333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.21313</v>
+      </c>
+      <c r="I14">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="J14">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03076233333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.09228699999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="P14">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="Q14">
+        <v>0.03294779203444444</v>
+      </c>
+      <c r="R14">
+        <v>0.29653012831</v>
+      </c>
+      <c r="S14">
+        <v>0.0008234354337202208</v>
+      </c>
+      <c r="T14">
+        <v>0.0008234354337202208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.071043333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.21313</v>
+      </c>
+      <c r="I15">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="J15">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.52907633333334</v>
+      </c>
+      <c r="N15">
+        <v>82.58722900000001</v>
+      </c>
+      <c r="O15">
+        <v>0.9616041035407232</v>
+      </c>
+      <c r="P15">
+        <v>0.9616041035407231</v>
+      </c>
+      <c r="Q15">
+        <v>29.48483367964111</v>
+      </c>
+      <c r="R15">
+        <v>265.36350311677</v>
+      </c>
+      <c r="S15">
+        <v>0.7368887354813377</v>
+      </c>
+      <c r="T15">
+        <v>0.7368887354813376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.071043333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.21313</v>
+      </c>
+      <c r="I16">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="J16">
+        <v>0.7663119705584025</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05488933333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.164668</v>
+      </c>
+      <c r="O16">
+        <v>0.001917311265181737</v>
+      </c>
+      <c r="P16">
+        <v>0.001917311265181736</v>
+      </c>
+      <c r="Q16">
+        <v>0.05878885453777778</v>
+      </c>
+      <c r="R16">
+        <v>0.5290996908400001</v>
+      </c>
+      <c r="S16">
+        <v>0.00146925857379524</v>
+      </c>
+      <c r="T16">
+        <v>0.00146925857379524</v>
       </c>
     </row>
   </sheetData>
